--- a/GDD-Canvas.xlsx
+++ b/GDD-Canvas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gb_pa\OneDrive\Documentos\Insper\Jogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{C2A6C664-FC38-4764-AE3A-F9091034845B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF5A5639-4E70-43B9-817C-8B4527CFC133}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{C2A6C664-FC38-4764-AE3A-F9091034845B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{040D58F2-A3DC-49B8-98D9-D20C99312B51}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,15 +88,6 @@
     <t xml:space="preserve"> Protagonista, Inimigos, Chefes</t>
   </si>
   <si>
-    <t>Uma bruxa lutando contra inimigos para escapar de um castelo</t>
-  </si>
-  <si>
-    <t>Plataforma</t>
-  </si>
-  <si>
-    <t>Setas para andar, espaço para pular e ctrl para atirar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apenas uma tela. Possivelmente vários níveis
 </t>
   </si>
@@ -104,20 +95,29 @@
     <t>Menu com música tema que vira um jogo com sua música própria</t>
   </si>
   <si>
-    <t xml:space="preserve">Plataforma
+    <t>Uma bruxa aprisionada em um castelo por espíritos malvados tenta escapar enfeitiçando os espítos que impeçam sua saída.</t>
+  </si>
+  <si>
+    <t>Apenas o menu e as fases</t>
+  </si>
+  <si>
+    <t>Níveis construídos em diferentes ambientes do castelo conforme a bruxa consegue escapar. Feito para jogadores casuais, não exigindo muitas habilidades prévias. Níveis levemente mais desafiadores conforme o progresso da missão para manter o interesse do jogador.</t>
+  </si>
+  <si>
+    <t>2D Pixel art por questões de estética e simplicidade. Sendo baseado em uma arte retrô típica de jogos mais antigos, com a finalidade de construir um sentimento de nostalgia e familiaridade.</t>
+  </si>
+  <si>
+    <t>Setas para andar, espaço para pular, ctrl para atirar e esc para pausar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jogo de plataforma cujo público alvo são jogadores iniciantes e jogadores casuais.
 </t>
   </si>
   <si>
-    <t>Bruxa como personagem prinical e 2 inimigos (cavaleiro e boneco de neve)</t>
-  </si>
-  <si>
-    <t>2D Pixel art por questões de estética e simplicidade</t>
-  </si>
-  <si>
-    <t>Plataforma padrão</t>
-  </si>
-  <si>
-    <t>Não se aplica</t>
+    <t>A protagonista será a bruxa em sua missão para escapar e os inimigos serão os espíritos do castelo impedindo sua saída. Inicialmente os inimigos serão apenas as armaduras de cavaleiros que tentarão golpear a personagem com suas espadas.</t>
+  </si>
+  <si>
+    <t>Jogo de plataforma simples com diferentes tipos de inimigos terrestres. O jogador é capaz de atirar para se livrar dos inimigos porém não possui um sistema de score - a principal missão é simplesmente escapar. O jogador pode recolher poções para retomar uma de suas vidas.</t>
   </si>
 </sst>
 </file>
@@ -712,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -797,35 +797,35 @@
       </c>
       <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" s="20"/>
       <c r="P3" s="21"/>
       <c r="Q3" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R3" s="22"/>
     </row>
@@ -892,17 +892,17 @@
     <row r="6" spans="1:18" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="41"/>
@@ -910,7 +910,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O6" s="43"/>
       <c r="P6" s="36"/>
